--- a/mathTransformed/HMPSTT_(2019-09-26)_55_4.xlsx
+++ b/mathTransformed/HMPSTT_(2019-09-26)_55_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Govt. High School Chincholi(H) Chittapur</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Gulbarga</t>
         </is>
       </c>
@@ -510,6 +520,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Navodaya P U College Channarayapatna</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -537,6 +552,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>G H S NalwarChittapur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Kalburgi</t>
         </is>
       </c>
@@ -564,6 +584,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Govt. High School GundgurthiChittapur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -591,6 +616,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Shri Jagadguru Gangadhar High SchoolHubballi</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -618,6 +648,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>S B H S HulikalMagadi</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -645,6 +680,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>L N J P N H S AlwaiBhalki</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -672,6 +712,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>St. Josephs High SchoolKoppa</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Chikamagalur</t>
         </is>
       </c>
@@ -699,6 +744,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Sri Sadguru High School BasarikatteKoppa</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Chikmagalore</t>
         </is>
       </c>
@@ -726,6 +776,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Shivaji H S Bhalki</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -753,6 +808,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>G J C ShravanabelagolaC R Patna</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -780,6 +840,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>Fatima High School KeshwapurHubli</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -807,6 +872,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>N E H S GalagaliBilagi</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Bagalakote</t>
         </is>
       </c>
@@ -834,6 +904,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>Vedhavathi Girls High School Kadur</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Chikmagalur</t>
         </is>
       </c>
@@ -861,6 +936,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>G J C SingrihalliHarapanahalli</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Ballary</t>
         </is>
       </c>
@@ -888,6 +968,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>S S R High School KanchikereHarapanahalli</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -915,6 +1000,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G H S Wadi(Jn)Chittapur</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -942,6 +1032,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>G H S HanumidiBelur</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -969,6 +1064,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>G J C Harapanahalli</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -996,6 +1096,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>Fatima High School Hubballi</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1023,6 +1128,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>Girls English School Hubballi</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1050,6 +1160,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>L B H S HirekodigeKoppa</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Chikmagalur</t>
         </is>
       </c>
@@ -1077,6 +1192,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>Sri Siddaganga Rural High School GudemaranahalliMagadi</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Ramanagar</t>
         </is>
       </c>
@@ -1104,6 +1224,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>G H S KundurmuttC R Patna</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1131,6 +1256,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>G H S IngalagiChittapur</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Kalburgi</t>
         </is>
       </c>
@@ -1158,6 +1288,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>S G V V D S High School ArasikereHarapanahalli</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1185,6 +1320,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>National High School ChilurHonnali</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1212,6 +1352,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>G H S Gulasindha Channarayapatna</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1239,6 +1384,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>Govt. High School HebbalChittapur</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1266,6 +1416,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>J H S HiremegalagereHarapanahalli</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1293,6 +1448,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>S S P S High School NarveKoppa</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Chikmagalur</t>
         </is>
       </c>
@@ -1318,7 +1478,8 @@
           <t>SABEENA MUKHTAR AHMED</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>Govt. High School Dandoti</t>
         </is>
@@ -1336,6 +1497,11 @@
         </is>
       </c>
       <c r="F35" t="inlineStr">
+        <is>
+          <t>Chittapur</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>Kalaburagi</t>
         </is>
@@ -1364,6 +1530,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>Savarad S R H S TumbagiTalikoti</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -1391,6 +1562,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>Govt. Boy’s High School ShahabadChittapur</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Kalbarga</t>
         </is>
       </c>
@@ -1418,6 +1594,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>Dr. Raj Kumar High School Shikaripura</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1445,6 +1626,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>G E S Deshpandenagar Hubli</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1472,6 +1658,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>Govt. High School Kudregundi</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Koppa Chikmagalur</t>
         </is>
       </c>
@@ -1500,6 +1691,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>Kalburgi South</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Kalburgi</t>
         </is>
       </c>
@@ -1527,6 +1723,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>G H S Halahalli(K)Bhalki</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1554,6 +1755,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>S S R H S ByalakereMagadi</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Ramanagar</t>
         </is>
       </c>
@@ -1581,6 +1787,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>Govt. P U College (High School Section)B H Road</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1608,6 +1819,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>Jayapura High SchoolKoppa</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Chikamagalore</t>
         </is>
       </c>
@@ -1635,6 +1851,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>G H S K Byrapura C R Patna</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1662,6 +1883,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>S S R H S K B Math Magadi</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -1689,6 +1915,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>Govt. High School RummangudChincholi</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1716,6 +1947,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>G H S LakhangaonBhalki</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1743,6 +1979,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>G H S NiluvagiluKoppa</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Chikkmagalore</t>
         </is>
       </c>
@@ -1770,6 +2011,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>Sri Allamaprabhu High School Balligari</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>Shikaripura</t>
         </is>
       </c>
@@ -1785,7 +2031,8 @@
           <t>Shimoga.</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
         <is>
           <t>Shimoga</t>
         </is>
@@ -1814,6 +2061,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>Sri Maruthi High School HolalurShivamogga</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1841,6 +2093,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>R H C H S BagaliHarapanahalli</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>Ballery</t>
         </is>
       </c>
@@ -1868,6 +2125,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>G H S HalbargaBhalki</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1895,6 +2157,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>G H S RawoorChittapur</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>Kalburgi</t>
         </is>
       </c>
@@ -1922,6 +2189,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>A P H S TheligiHarapanahalli</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>Ballary</t>
         </is>
       </c>
@@ -1949,6 +2221,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>V B C High School Muddebihal</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>Vijapur</t>
         </is>
       </c>
@@ -1972,6 +2249,11 @@
         </is>
       </c>
       <c r="F59" t="inlineStr">
+        <is>
+          <t>K L E S C P High School MahalingapurMudhol</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>Bagalkot</t>
         </is>

--- a/mathTransformed/HMPSTT_(2019-09-26)_55_4.xlsx
+++ b/mathTransformed/HMPSTT_(2019-09-26)_55_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Gulbarga</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Kalburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Ramanagar</t>
+          <t>Ramanagara</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Kalburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1478,7 +1478,6 @@
           <t>SABEENA MUKHTAR AHMED</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
           <t>Govt. High School Dandoti</t>
@@ -1503,7 +1502,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1535,7 +1534,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1695,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Kalburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1759,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Ramanagar</t>
+          <t>Ramanagara</t>
         </is>
       </c>
     </row>
@@ -1920,7 +1919,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2030,6 @@
           <t>Shimoga.</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
           <t>Shimoga</t>
@@ -2162,7 +2160,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Kalburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>

--- a/mathTransformed/HMPSTT_(2019-09-26)_55_4.xlsx
+++ b/mathTransformed/HMPSTT_(2019-09-26)_55_4.xlsx
@@ -717,7 +717,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chikamagalur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Chikmagalore</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Bagalakote</t>
+          <t>Bagalkot</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chikmagalur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Ballary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Chikmagalur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Chikmagalur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Govt. High School Dandoti</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Kalbarga</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Koppa Chikmagalur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Chikamagalore</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Chikkmagalore</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Shikaripura</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Ballery</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Ballary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Vijapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
